--- a/1/whitelist.xlsx
+++ b/1/whitelist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667C4FA5-2B37-9043-9D03-CCB3C1131303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59993335-A580-3745-A722-1C59046010A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{86E493B8-18C0-AC4B-B3B8-9C7232812889}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1194">
   <si>
     <t>0x88037c28edec1bb45b3fc48b7fadab99879e7977</t>
   </si>
@@ -3457,6 +3457,165 @@
   </si>
   <si>
     <t>0xB7C9bFe0524002c916F3A111fB6C3Be80cF4352A</t>
+  </si>
+  <si>
+    <t>0xe00c022ee65bead2d74f96072972d6a4a6bb8fa3</t>
+  </si>
+  <si>
+    <t>0x0fa6d05c44ae1261e05450b407a26bfcf2d609dc</t>
+  </si>
+  <si>
+    <t>0x1508f0abde47d8ce483ce3b397d9de1e40d2142d</t>
+  </si>
+  <si>
+    <t>0x09c6c02c56a7cf4e1782c961c7fb8dc5ccfc1a42</t>
+  </si>
+  <si>
+    <t>0x096280092f28E3b6505Bea3fa05DaC29C8643e22</t>
+  </si>
+  <si>
+    <t>0xb3a3D4CaB3aefE6d8F0E699f94C8e5e3183CaA2d</t>
+  </si>
+  <si>
+    <t>0xf0cA2f2bd1cC9Ad96bA0E3A27Ce9e8FE7f11c98e</t>
+  </si>
+  <si>
+    <t>0x3cd338DFF86D38Dc0B6F5834a6da2daEEe22ebeC</t>
+  </si>
+  <si>
+    <t>0xc40B38Fe6B94aBF916B894B735ff9750a4000596</t>
+  </si>
+  <si>
+    <t>0x8ECba0C0A212a2cFb445Abb0673f159F80C91cf8</t>
+  </si>
+  <si>
+    <t>0x57bb65c64AC9bC2F93c4AdC08A8E9ac1F3CA072B</t>
+  </si>
+  <si>
+    <t>0xFebdb8Db8048Fda27805Ab3384fdba66396e822b</t>
+  </si>
+  <si>
+    <t>0xC645c87108Cc46123380c33AA2941070b6B7a26a</t>
+  </si>
+  <si>
+    <t>0xd60FC7Bc474bB1c2219C99f1cc76E1CB5413F805</t>
+  </si>
+  <si>
+    <t>0x47B70245dC0Daa18E0F7594647963d9A713BA296</t>
+  </si>
+  <si>
+    <t>0x628e5eF174AF2d00f9237FbD58cFBeD1d23F5695</t>
+  </si>
+  <si>
+    <t>0x708aa56034bc47E69382A8cAcfc1Fa8Fa31aa464</t>
+  </si>
+  <si>
+    <t>0x93C30c831C07D1Bf9d2d840d2ca9a7fAd990FD09</t>
+  </si>
+  <si>
+    <t>0x77473c332B5d561BA49eC0E71BE0645D77568508</t>
+  </si>
+  <si>
+    <t>0x65CfA71f76e0211202ac89E6b91DeF4c3b8034F3</t>
+  </si>
+  <si>
+    <t>0x202645355D8BdFc01Ebd6610AA004cBb551315F0</t>
+  </si>
+  <si>
+    <t>0xF6562384e0FB2296866ED7a7FD4D89a857830eF1</t>
+  </si>
+  <si>
+    <t>0xED981d27d8AF4B6bC829B7fA78Fc93E4427e075f</t>
+  </si>
+  <si>
+    <t>0xE16deB6bfb8B1771B83030Cdfd881165f633E69d</t>
+  </si>
+  <si>
+    <t>0x1D223a6aA0C89E0913f737a8C4da214998698bAa</t>
+  </si>
+  <si>
+    <t>0x58Be876e638b36C4a50d386d769d182C92588b99</t>
+  </si>
+  <si>
+    <t>0x8452b8B2DBB37E90e01A67163C74255B896db394</t>
+  </si>
+  <si>
+    <t>0xe79b183f6E78eCf08611e7F67D401E0422122E8A</t>
+  </si>
+  <si>
+    <t>0x28Bac62418A62bD7690e058e1DD52d307BF4d397</t>
+  </si>
+  <si>
+    <t>0xA5Ab40d20e8e10B83b6e1969ba03E1ced43a2698</t>
+  </si>
+  <si>
+    <t>0x1A28A13E0A36B93044AC11901bF07bD2d25e610e</t>
+  </si>
+  <si>
+    <t>0x6a18afc27bac0debe98d124095b6fd7d50841c5c</t>
+  </si>
+  <si>
+    <t>0x96B431537c811057ae9D8773f35EC6b1C09d80e8</t>
+  </si>
+  <si>
+    <t>0x6b47Ea4DFbb771aF18d73430A979d9F781315CB5</t>
+  </si>
+  <si>
+    <t>0x30B83F3271b777BC9dEFF8b2CB0C2f4b17AB30B2</t>
+  </si>
+  <si>
+    <t>0x53c67e5ca2570a187ec5fc7d820d2f863f51a44a</t>
+  </si>
+  <si>
+    <t>0x8d96218cFF8A5B3741529b9a69FF3dfB4d359cE2</t>
+  </si>
+  <si>
+    <t>0xF8e63f7c02772f34e2dD6Cd23225c1bf9DFf445c</t>
+  </si>
+  <si>
+    <t>0xBA56Debad39306686BF0bB57cE5BAEf6bAca6974</t>
+  </si>
+  <si>
+    <t>0x89aA9D13A6d470fc04B9330AB25f77eAEE59BDEd</t>
+  </si>
+  <si>
+    <t>0xeEE12027790AF6c3cdef3861e5F4b36735C2c411</t>
+  </si>
+  <si>
+    <t>0x0aC78318CB678D3035786E425A0156137baA21c8</t>
+  </si>
+  <si>
+    <t>0xa468DDaaf05cd93CCD00c4DaDdF36414e49aCE17</t>
+  </si>
+  <si>
+    <t>0x54Df4F2D0605b899c92c92a9276933c3d236fe67</t>
+  </si>
+  <si>
+    <t>0x05740759F224e07D98f444C2E9a4a548401e8077</t>
+  </si>
+  <si>
+    <t>0xfbB91B2682b79172E1b7587094106050fea210E3</t>
+  </si>
+  <si>
+    <t>0xEF7f4976d8f1447B444169c8953baE8814576e06</t>
+  </si>
+  <si>
+    <t>0x5cA7E24F3A22A7c5Fd44D29954718aa64eF73d42</t>
+  </si>
+  <si>
+    <t>0x695F8e7b6480A0991a9B377254d397A78Aa780fD</t>
+  </si>
+  <si>
+    <t>0x0d7e5b8A36b0e62dCA5C0845e0C5e4286c96C7A3</t>
+  </si>
+  <si>
+    <t>0xfCE303942c499D23e4EF26922a245ddaaEABf155</t>
+  </si>
+  <si>
+    <t>0x1cB4C3F8e622F45D4483107F7Be9F7092A603AD2</t>
+  </si>
+  <si>
+    <t>0x04CcfF156D59e3aaf4CD3f62D4b52cd048183712</t>
   </si>
 </sst>
 </file>
@@ -3827,10 +3986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFE0616-4829-994A-B341-1E205AA6A77B}">
-  <dimension ref="B1:B1154"/>
+  <dimension ref="B1:B1207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
-      <selection activeCell="B1154" sqref="B1154"/>
+    <sheetView tabSelected="1" topLeftCell="A1165" workbookViewId="0">
+      <selection activeCell="D1162" sqref="D1162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9608,6 +9767,271 @@
         <v>1140</v>
       </c>
     </row>
+    <row r="1155" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1155" s="3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1156" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1156" s="2" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1157" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1157" s="2" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1158" s="2" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1159" s="2" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1160" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1161" s="2" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1162" s="2" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1163" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1164" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1165" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1166" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1167" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1167" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1168" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1169" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1170" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1171" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1172" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1173" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1174" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1175" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1175" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1176" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1176" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1177" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1178" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1179" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1180" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1181" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1182" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1183" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1184" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1185" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1186" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1187" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1188" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1189" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1190" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1191" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1192" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1193" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1194" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1195" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1196" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1197" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1198" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1199" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1200" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1201" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1202" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1203" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1204" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1205" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1206" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1207" t="s">
+        <v>1193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1/whitelist.xlsx
+++ b/1/whitelist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59993335-A580-3745-A722-1C59046010A3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF962E10-3980-DD4C-8C2C-53865E3703FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{86E493B8-18C0-AC4B-B3B8-9C7232812889}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{86E493B8-18C0-AC4B-B3B8-9C7232812889}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="1194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="1195">
   <si>
     <t>0x88037c28edec1bb45b3fc48b7fadab99879e7977</t>
   </si>
@@ -3504,9 +3504,6 @@
     <t>0x47B70245dC0Daa18E0F7594647963d9A713BA296</t>
   </si>
   <si>
-    <t>0x628e5eF174AF2d00f9237FbD58cFBeD1d23F5695</t>
-  </si>
-  <si>
     <t>0x708aa56034bc47E69382A8cAcfc1Fa8Fa31aa464</t>
   </si>
   <si>
@@ -3616,6 +3613,12 @@
   </si>
   <si>
     <t>0x04CcfF156D59e3aaf4CD3f62D4b52cd048183712</t>
+  </si>
+  <si>
+    <t>0x008d399B5936B8fc3D6Ce86Ad53AC001217E3978</t>
+  </si>
+  <si>
+    <t>0xD13EE409696B77bE22945b03A38B101b41671dbD</t>
   </si>
 </sst>
 </file>
@@ -3664,11 +3667,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3676,7 +3676,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3986,10 +3997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFE0616-4829-994A-B341-1E205AA6A77B}">
-  <dimension ref="B1:B1207"/>
+  <dimension ref="B1:B1195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1165" workbookViewId="0">
-      <selection activeCell="D1162" sqref="D1162"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="B1179" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9482,557 +9493,500 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="1098" spans="2:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="B1098" s="1" t="s">
-        <v>0</v>
+    <row r="1098" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B1098" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1099" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1100" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1101" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1102" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1103" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1104" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="1106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1106" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1107" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="1108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1108" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1109" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="1110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1110" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="1111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1111" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1112" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1113" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="1114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1114" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1115" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="1116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1116" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="1117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1117" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1118" t="s">
-        <v>20</v>
+      <c r="B1118" s="1" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="1119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1119" t="s">
-        <v>21</v>
+      <c r="B1119" s="1" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="1120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1120" t="s">
-        <v>22</v>
+      <c r="B1120" s="1" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="1121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1121" t="s">
-        <v>23</v>
+      <c r="B1121" s="1" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="1122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1122" t="s">
-        <v>24</v>
+      <c r="B1122" s="1" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="1123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1123" t="s">
-        <v>25</v>
+      <c r="B1123" s="1" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="1124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1124" t="s">
-        <v>26</v>
+      <c r="B1124" s="1" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="1125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1125" t="s">
-        <v>27</v>
+      <c r="B1125" s="1" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="1126" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1126" t="s">
-        <v>28</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="1127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1127" t="s">
-        <v>29</v>
+      <c r="B1127" s="2" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="1128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1128" t="s">
-        <v>30</v>
+      <c r="B1128" s="3" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="1129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1129" t="s">
-        <v>31</v>
+      <c r="B1129" s="2" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="1130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1130" t="s">
-        <v>32</v>
+      <c r="B1130" s="2" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="1131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1131" s="2" t="s">
-        <v>1117</v>
+      <c r="B1131" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="1132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1132" s="2" t="s">
-        <v>1118</v>
+      <c r="B1132" s="1" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="1133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1133" s="2" t="s">
-        <v>1119</v>
+      <c r="B1133" s="1" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="1134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1134" s="2" t="s">
-        <v>1120</v>
+      <c r="B1134" s="1" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="1135" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1135" s="2" t="s">
-        <v>1121</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="1136" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1136" s="2" t="s">
-        <v>1122</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1137" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1137" s="2" t="s">
-        <v>1123</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="1138" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1138" s="2" t="s">
-        <v>1124</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="1139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1139" t="s">
-        <v>1125</v>
+      <c r="B1139" s="1" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="1140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1140" s="3" t="s">
-        <v>1126</v>
+      <c r="B1140" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="1141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1141" s="4" t="s">
-        <v>1127</v>
+      <c r="B1141" s="2" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="1142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1142" s="3" t="s">
-        <v>1128</v>
+      <c r="B1142" s="2" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="1143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1143" s="3" t="s">
-        <v>1129</v>
+      <c r="B1143" s="1" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="1144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1144" t="s">
-        <v>1130</v>
+      <c r="B1144" s="1" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1145" s="2" t="s">
-        <v>1131</v>
+      <c r="B1145" s="1" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="1146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1146" s="2" t="s">
-        <v>1132</v>
+      <c r="B1146" s="1" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="1147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1147" s="2" t="s">
-        <v>1133</v>
+      <c r="B1147" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="1148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1148" s="3" t="s">
-        <v>1134</v>
+      <c r="B1148" s="1" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="1149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1149" s="3" t="s">
-        <v>1135</v>
+      <c r="B1149" s="1" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="1150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1150" s="3" t="s">
-        <v>1136</v>
+      <c r="B1150" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="1151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1151" s="3" t="s">
-        <v>1137</v>
+      <c r="B1151" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="1152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1152" s="2" t="s">
-        <v>1138</v>
+      <c r="B1152" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="1153" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1153" t="s">
-        <v>1139</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1154" s="3" t="s">
-        <v>1140</v>
+      <c r="B1154" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="1155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1155" s="3" t="s">
-        <v>1141</v>
+      <c r="B1155" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="1156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1156" s="2" t="s">
-        <v>1142</v>
+      <c r="B1156" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="1157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1157" s="2" t="s">
-        <v>1143</v>
+      <c r="B1157" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1158" s="2" t="s">
-        <v>1144</v>
+      <c r="B1158" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1159" s="2" t="s">
-        <v>1145</v>
+      <c r="B1159" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1160" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1161" s="2" t="s">
-        <v>1147</v>
+      <c r="B1161" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1162" s="2" t="s">
-        <v>1148</v>
+      <c r="B1162" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1163" t="s">
-        <v>1149</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1164" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1164" t="s">
-        <v>1150</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="1165" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1165" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1166" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1166" t="s">
-        <v>1152</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="1167" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1167" t="s">
-        <v>1153</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="1168" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1168" t="s">
-        <v>1154</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1169" t="s">
-        <v>1155</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1170" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1171" t="s">
-        <v>1157</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1172" t="s">
-        <v>1158</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1173" t="s">
-        <v>1159</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1174" t="s">
-        <v>1160</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="1175" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1175" t="s">
-        <v>1161</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="1176" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1176" t="s">
-        <v>1162</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="1177" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1177" t="s">
-        <v>1163</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1178" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1178" t="s">
-        <v>1164</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1179" t="s">
-        <v>1165</v>
+      <c r="B1179" s="2" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="1180" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1180" t="s">
-        <v>1166</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="1181" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1181" t="s">
-        <v>1167</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="1182" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1182" t="s">
-        <v>1168</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1183" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1183" t="s">
-        <v>1169</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="1184" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1184" t="s">
-        <v>1170</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="1185" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1185" t="s">
-        <v>1171</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="1186" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1186" t="s">
-        <v>1172</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="1187" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1187" t="s">
-        <v>1173</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="1188" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1188" t="s">
-        <v>1174</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1189" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1189" t="s">
-        <v>1175</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="1190" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1190" t="s">
-        <v>1176</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="1191" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1191" t="s">
-        <v>1177</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="1192" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B1192" t="s">
-        <v>1178</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1193" s="3" t="s">
-        <v>1179</v>
+      <c r="B1193" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="1194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1194" t="s">
-        <v>1180</v>
+      <c r="B1194" s="2" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="1195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1195" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1196" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="1197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1197" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="1198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1198" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1199" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="1200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1200" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="1201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1201" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1202" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1203" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1204" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1205" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1206" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1207" t="s">
-        <v>1193</v>
+      <c r="B1195" s="1" t="s">
+        <v>1194</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>